--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_1_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1424319.970851674</v>
+        <v>1445739.950556944</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2083705.798332966</v>
+        <v>1737911.484358931</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1702443.552109824</v>
+        <v>4541732.1730751</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10852614.83259179</v>
+        <v>9605299.613516435</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>340.0252251688445</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>96.15030530189917</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>54.47555601903363</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -861,16 +861,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>168.7756050755994</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,10 +898,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>88.56530809765842</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>339.0399185806814</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.80807769362092</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>102.765954117518</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>109.5303549827045</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1293,16 +1293,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>8.389005322401447</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>412.9169039459368</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>154.6528871281402</v>
+        <v>157.0421379743137</v>
       </c>
       <c r="T11" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>57.16908071259387</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.0669836643703</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
-        <v>99.90681807664346</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>45.44580843958671</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>20.90078060183517</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S12" t="n">
-        <v>147.9721212459916</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T12" t="n">
-        <v>195.0194028815133</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1536,10 +1536,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>18.58007567966527</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.260654658097</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>68.79998694468946</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>315.0408840752156</v>
+        <v>290.0035889091394</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,25 +1654,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.0669836643703</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
-        <v>99.90681807664346</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>45.44580843958673</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>20.90078060183519</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
-        <v>147.9721212459916</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T15" t="n">
-        <v>195.0194028815133</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>3.243687674798299</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>129.1731816677914</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1821,19 +1821,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>155.4526127311941</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274068</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648052002</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>46.63497540675878</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>135.5574116118565</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H18" t="n">
-        <v>94.98542483262921</v>
+        <v>99.90681807664348</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>45.44580843958678</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>20.90078060183531</v>
       </c>
       <c r="S18" t="n">
-        <v>138.5070438670631</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T18" t="n">
-        <v>192.9654699154601</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8238751368068</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2004,19 +2004,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>40.71096332175435</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>165.0140383262328</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>118.4960408938905</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051984</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>5.142837397518228</v>
       </c>
     </row>
     <row r="21">
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>135.5574116118565</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H21" t="n">
-        <v>94.98542483262921</v>
+        <v>99.90681807664348</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>45.44580843958678</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>20.90078060183529</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670632</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T21" t="n">
-        <v>192.9654699154601</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8238751368068</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2247,13 +2247,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>99.43636052933105</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>227.9017882635713</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>108.3636623682362</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>27.26009267756244</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>169.827716759979</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2955,16 +2955,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>101.2898147863548</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>187.0035009001194</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>80.10526869704859</v>
       </c>
       <c r="Y34" t="n">
-        <v>42.02510219382536</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3283,7 +3283,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274077</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3429,16 +3429,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G37" t="n">
-        <v>46.18719652447326</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>134.2724437449544</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>157.2425576766696</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>170.5809693952293</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4143,7 +4143,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>7.312945786385526</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>53.44850834569792</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1763.586886263858</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="C2" t="n">
-        <v>1394.624369323446</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1142.561333289048</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2150.18672632798</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>2150.18672632798</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W2" t="n">
-        <v>2150.18672632798</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X2" t="n">
-        <v>2150.18672632798</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="Y2" t="n">
-        <v>2150.18672632798</v>
+        <v>1528.349585887292</v>
       </c>
     </row>
     <row r="3">
@@ -4391,19 +4391,19 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4412,28 +4412,28 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124028</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
-        <v>108.9687959810045</v>
+        <v>343.360151857325</v>
       </c>
       <c r="U4" t="n">
-        <v>108.9687959810045</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V4" t="n">
-        <v>108.9687959810045</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1920.409918978289</v>
+        <v>1358.140854479381</v>
       </c>
       <c r="C5" t="n">
-        <v>1551.447402037877</v>
+        <v>1358.140854479381</v>
       </c>
       <c r="D5" t="n">
-        <v>1193.181703431127</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>807.3934508328825</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>396.407546043275</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="X5" t="n">
-        <v>2697.149091018222</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="Y5" t="n">
-        <v>2307.009759042411</v>
+        <v>1744.740694543503</v>
       </c>
     </row>
     <row r="6">
@@ -4649,22 +4649,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>680.8480976472212</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>680.8480976472212</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>530.7314582348854</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>382.8183646524922</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4749,28 +4749,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>680.8480976472212</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>680.8480976472212</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>680.8480976472212</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>680.8480976472212</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V7" t="n">
-        <v>680.8480976472212</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W7" t="n">
-        <v>680.8480976472212</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="X7" t="n">
-        <v>680.8480976472212</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>680.8480976472212</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>940.9219833362306</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C8" t="n">
-        <v>940.9219833362306</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D8" t="n">
-        <v>582.6562847294801</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E8" t="n">
-        <v>582.6562847294801</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>171.6703799398726</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>157.7469758784635</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>157.7469758784635</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2057.295728843236</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W8" t="n">
-        <v>1704.527073573122</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="X8" t="n">
-        <v>1331.061315312042</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="Y8" t="n">
-        <v>940.9219833362306</v>
+        <v>2024.243304314563</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424003</v>
@@ -4883,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4922,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>507.3364050629041</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4995,19 +4995,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y10" t="n">
-        <v>507.3364050629041</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2333.305065052698</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C11" t="n">
-        <v>1964.342548112286</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D11" t="n">
-        <v>1606.076849505536</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E11" t="n">
-        <v>1220.288596907291</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F11" t="n">
-        <v>809.3026921176837</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G11" t="n">
-        <v>392.2149103541112</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H11" t="n">
-        <v>73.9917951266206</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I11" t="n">
-        <v>73.9917951266206</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>262.6316941403568</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K11" t="n">
-        <v>666.098807160402</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L11" t="n">
-        <v>1218.912065406601</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M11" t="n">
-        <v>1850.629876389912</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>2477.937544449759</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
-        <v>3025.098749216836</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>3454.41379555613</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q11" t="n">
-        <v>3699.58975633103</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>3699.58975633103</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>3543.374718827858</v>
+        <v>2538.520668821946</v>
       </c>
       <c r="T11" t="n">
-        <v>3328.574857095569</v>
+        <v>2538.520668821946</v>
       </c>
       <c r="U11" t="n">
-        <v>3074.88315384072</v>
+        <v>2538.520668821946</v>
       </c>
       <c r="V11" t="n">
-        <v>2743.82026649715</v>
+        <v>2538.520668821946</v>
       </c>
       <c r="W11" t="n">
-        <v>2391.051611227035</v>
+        <v>2185.752013551832</v>
       </c>
       <c r="X11" t="n">
-        <v>2333.305065052698</v>
+        <v>1812.286255290752</v>
       </c>
       <c r="Y11" t="n">
-        <v>2333.305065052698</v>
+        <v>1422.14692331494</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>987.4134795532265</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C12" t="n">
-        <v>812.9604502720995</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D12" t="n">
-        <v>664.0260406108482</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E12" t="n">
-        <v>504.7885856053927</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2540276322776</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
-        <v>220.8126299914996</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H12" t="n">
-        <v>119.8966521363041</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>73.9917951266206</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>73.9917951266206</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>303.1315656586092</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>807.4931055247275</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M12" t="n">
-        <v>986.990441879332</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
-        <v>1660.196134132114</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O12" t="n">
-        <v>2209.632142884837</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P12" t="n">
-        <v>2633.599911365674</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
-        <v>2656.33685256765</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R12" t="n">
-        <v>2635.224952969837</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2485.758163832472</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
-        <v>2288.76886799256</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U12" t="n">
-        <v>2060.630080503725</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1825.477972271983</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W12" t="n">
-        <v>1571.240615543781</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X12" t="n">
-        <v>1363.389115338248</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
-        <v>1155.628816573294</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>240.6726419207968</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C13" t="n">
-        <v>240.6726419207968</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D13" t="n">
-        <v>240.6726419207968</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E13" t="n">
-        <v>92.7595483384037</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F13" t="n">
-        <v>73.9917951266206</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G13" t="n">
-        <v>73.9917951266206</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
-        <v>73.9917951266206</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>73.9917951266206</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
-        <v>73.9917951266206</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K13" t="n">
-        <v>175.0397247222303</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>359.8727196230485</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>565.1423203422863</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N13" t="n">
-        <v>770.9656851783905</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O13" t="n">
-        <v>945.0605805669892</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P13" t="n">
-        <v>1070.508157165605</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>1073.926476585965</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>1073.926476585965</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>1073.926476585965</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>1073.926476585965</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U13" t="n">
-        <v>784.7743001636443</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V13" t="n">
-        <v>530.0898119577574</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W13" t="n">
-        <v>240.6726419207968</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X13" t="n">
-        <v>240.6726419207968</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y13" t="n">
-        <v>240.6726419207968</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1627.446520990142</v>
+        <v>1512.612574238668</v>
       </c>
       <c r="C14" t="n">
-        <v>1258.48400404973</v>
+        <v>1143.650057298256</v>
       </c>
       <c r="D14" t="n">
-        <v>1188.989067741963</v>
+        <v>1143.650057298256</v>
       </c>
       <c r="E14" t="n">
-        <v>803.2008151437187</v>
+        <v>757.8618047000118</v>
       </c>
       <c r="F14" t="n">
-        <v>392.2149103541111</v>
+        <v>346.8758999104043</v>
       </c>
       <c r="G14" t="n">
-        <v>392.2149103541111</v>
+        <v>346.8758999104043</v>
       </c>
       <c r="H14" t="n">
-        <v>73.99179512662057</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
-        <v>73.99179512662057</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>262.6316941403567</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>666.0988071604017</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L14" t="n">
-        <v>1218.912065406601</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M14" t="n">
-        <v>1850.629876389912</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>2477.937544449758</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O14" t="n">
-        <v>3025.098749216835</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P14" t="n">
-        <v>3454.413795556128</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q14" t="n">
-        <v>3699.589756331029</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>3699.589756331029</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>3543.374718827857</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T14" t="n">
-        <v>3328.574857095567</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U14" t="n">
-        <v>3074.883153840718</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V14" t="n">
-        <v>2743.820266497148</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W14" t="n">
-        <v>2391.051611227033</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X14" t="n">
-        <v>2017.585852965954</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="Y14" t="n">
-        <v>1627.446520990142</v>
+        <v>1899.21241430279</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>987.4134795532265</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C15" t="n">
-        <v>812.9604502720995</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D15" t="n">
-        <v>664.0260406108482</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E15" t="n">
-        <v>504.7885856053927</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2540276322776</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8126299914996</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H15" t="n">
-        <v>119.8966521363041</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>73.99179512662057</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>73.99179512662057</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>403.4201994324301</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>540.6497974481238</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>779.0139270208417</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1452.219619273624</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
-        <v>2001.655628026346</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
-        <v>2425.623396507183</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
-        <v>2656.33685256765</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R15" t="n">
-        <v>2635.224952969837</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S15" t="n">
-        <v>2485.758163832472</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T15" t="n">
-        <v>2288.76886799256</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U15" t="n">
-        <v>2060.630080503725</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1825.477972271983</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W15" t="n">
-        <v>1571.240615543781</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X15" t="n">
-        <v>1363.389115338248</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y15" t="n">
-        <v>1155.628816573294</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>541.0074713315969</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C16" t="n">
-        <v>372.07128840369</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D16" t="n">
-        <v>372.07128840369</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E16" t="n">
-        <v>224.1581948212969</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F16" t="n">
-        <v>77.26824732338653</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G16" t="n">
-        <v>73.99179512662057</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H16" t="n">
-        <v>73.99179512662057</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
-        <v>73.99179512662057</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
-        <v>73.99179512662057</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K16" t="n">
-        <v>175.0397247222302</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>359.8727196230484</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
-        <v>565.1423203422861</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N16" t="n">
-        <v>770.9656851783902</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O16" t="n">
-        <v>945.060580566989</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P16" t="n">
-        <v>1070.508157165604</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>1073.926476585964</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>943.4485153053668</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>943.4485153053668</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T16" t="n">
-        <v>943.4485153053668</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U16" t="n">
-        <v>943.4485153053668</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V16" t="n">
-        <v>943.4485153053668</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W16" t="n">
-        <v>943.4485153053668</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X16" t="n">
-        <v>943.4485153053668</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y16" t="n">
-        <v>722.6559361618366</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2134.774920425097</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>1765.812403484685</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1407.546704877934</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1021.75845227969</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>610.7725474900825</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>193.68476572651</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>193.68476572651</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028589</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>262.6316941403561</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>666.098807160401</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1218.912065406599</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>1850.62987638991</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>2477.937544449755</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3025.098749216831</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>3454.413795556125</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>3543.374718827853</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>3543.374718827853</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>3289.683015573004</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>2958.620128229433</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>2958.620128229433</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>2911.51409246503</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2521.374760489219</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C18" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D18" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E18" t="n">
-        <v>504.8063651047445</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2540276322776</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028589</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>192.6510469835158</v>
       </c>
       <c r="K18" t="n">
-        <v>498.9056400965584</v>
+        <v>522.0794512893251</v>
       </c>
       <c r="L18" t="n">
-        <v>745.6707680030227</v>
+        <v>1026.440991155443</v>
       </c>
       <c r="M18" t="n">
-        <v>1514.038914395484</v>
+        <v>1253.562877620961</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059517</v>
+        <v>1452.219619273625</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>2001.655628026347</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2425.623396507183</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="R18" t="n">
-        <v>2623.573505376138</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S18" t="n">
-        <v>2483.667400459913</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T18" t="n">
-        <v>2288.75278438369</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U18" t="n">
-        <v>2060.647860003077</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V18" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W18" t="n">
-        <v>1571.258395043133</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X18" t="n">
-        <v>1363.4068948376</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y18" t="n">
-        <v>1155.646596072646</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>879.2482765610114</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="C19" t="n">
-        <v>710.3120936331045</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="D19" t="n">
-        <v>560.1954542207687</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="E19" t="n">
-        <v>412.2823606383756</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404653</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028589</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028589</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028589</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>175.03972472223</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>359.8727196230479</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471196</v>
+        <v>565.1423203422854</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974667</v>
+        <v>770.9656851783893</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>945.0605805669878</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S19" t="n">
-        <v>1457.794085384414</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="T19" t="n">
-        <v>1457.794085384414</v>
+        <v>907.2456297917881</v>
       </c>
       <c r="U19" t="n">
-        <v>1168.665446597972</v>
+        <v>618.093453369468</v>
       </c>
       <c r="V19" t="n">
-        <v>1168.665446597972</v>
+        <v>363.4089651635811</v>
       </c>
       <c r="W19" t="n">
-        <v>879.2482765610114</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="X19" t="n">
-        <v>879.2482765610114</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="Y19" t="n">
-        <v>879.2482765610114</v>
+        <v>73.9917951266205</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2134.774920425096</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>1765.812403484685</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1407.546704877934</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1021.75845227969</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>610.7725474900824</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>193.6847657265099</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>193.6847657265099</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>262.6316941403561</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>666.098807160401</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1218.912065406599</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>1850.62987638991</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>2477.937544449756</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3025.098749216832</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>3454.413795556125</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>3484.789894598736</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>3231.098191343887</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>2900.035304000317</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>2900.035304000317</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>2526.569545739237</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2521.374760489218</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C21" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D21" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E21" t="n">
-        <v>504.8063651047445</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2540276322776</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>220.8126299914995</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J21" t="n">
-        <v>233.7852434110091</v>
+        <v>192.6510469835159</v>
       </c>
       <c r="K21" t="n">
-        <v>644.6755122555218</v>
+        <v>522.0794512893252</v>
       </c>
       <c r="L21" t="n">
-        <v>891.4406401619858</v>
+        <v>1026.440991155443</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>1253.562877620961</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>1452.219619273625</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2001.655628026347</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2425.623396507183</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="R21" t="n">
-        <v>2623.573505376138</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S21" t="n">
-        <v>2483.667400459913</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T21" t="n">
-        <v>2288.75278438369</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U21" t="n">
-        <v>2060.647860003077</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V21" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W21" t="n">
-        <v>1571.258395043133</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X21" t="n">
-        <v>1363.4068948376</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y21" t="n">
-        <v>1155.646596072646</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>492.4609007520348</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="C22" t="n">
-        <v>492.4609007520348</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="D22" t="n">
-        <v>492.4609007520348</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="E22" t="n">
-        <v>344.5478071696417</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="F22" t="n">
-        <v>197.6578596717314</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>175.03972472223</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>359.872719623048</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>565.1423203422855</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>770.9656851783894</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>945.0605805669879</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>848.2972798983279</v>
       </c>
       <c r="U22" t="n">
-        <v>1009.867621687013</v>
+        <v>618.093453369468</v>
       </c>
       <c r="V22" t="n">
-        <v>1009.867621687013</v>
+        <v>363.4089651635811</v>
       </c>
       <c r="W22" t="n">
-        <v>720.4504516500522</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="X22" t="n">
-        <v>492.4609007520348</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="Y22" t="n">
-        <v>492.4609007520348</v>
+        <v>73.9917951266205</v>
       </c>
     </row>
     <row r="23">
@@ -5965,55 +5965,55 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6056,34 +6056,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1271.460813324402</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>982.3321745379599</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V25" t="n">
-        <v>727.647686332073</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W25" t="n">
-        <v>727.647686332073</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X25" t="n">
-        <v>499.6581354340557</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.8655562905255</v>
+        <v>988.7065213774116</v>
       </c>
     </row>
     <row r="26">
@@ -6226,16 +6226,16 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
         <v>3183.709822619127</v>
@@ -6253,10 +6253,10 @@
         <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
         <v>4262.357857465301</v>
@@ -6320,13 +6320,13 @@
         <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>213.9110074201016</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C28" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D28" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E28" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F28" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028583</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1327.373122315499</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1327.373122315499</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609664</v>
+        <v>1038.244483529058</v>
       </c>
       <c r="V28" t="n">
-        <v>731.3177283550796</v>
+        <v>783.5599953231707</v>
       </c>
       <c r="W28" t="n">
-        <v>441.900558318119</v>
+        <v>494.1428252862101</v>
       </c>
       <c r="X28" t="n">
-        <v>213.9110074201016</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="Y28" t="n">
-        <v>213.9110074201016</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="29">
@@ -6463,13 +6463,13 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6490,7 +6490,7 @@
         <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
@@ -6542,25 +6542,25 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636248</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>542.1367719529251</v>
+        <v>199.530035688927</v>
       </c>
       <c r="C31" t="n">
-        <v>542.1367719529251</v>
+        <v>199.530035688927</v>
       </c>
       <c r="D31" t="n">
-        <v>392.0201325405893</v>
+        <v>199.530035688927</v>
       </c>
       <c r="E31" t="n">
-        <v>244.1070389581962</v>
+        <v>199.530035688927</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028583</v>
+        <v>199.530035688927</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028583</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U31" t="n">
-        <v>1275.130855347408</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V31" t="n">
-        <v>1020.446367141521</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W31" t="n">
-        <v>731.0291971045608</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="X31" t="n">
-        <v>542.1367719529251</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="Y31" t="n">
-        <v>542.1367719529251</v>
+        <v>199.530035688927</v>
       </c>
     </row>
     <row r="32">
@@ -6679,31 +6679,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6718,31 +6718,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6767,34 +6767,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>395.2468244550147</v>
+        <v>560.9563154684962</v>
       </c>
       <c r="C34" t="n">
-        <v>395.2468244550147</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D34" t="n">
-        <v>245.130185042679</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U34" t="n">
-        <v>1209.787631771461</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V34" t="n">
-        <v>955.1031435655738</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W34" t="n">
-        <v>665.6859735286132</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="X34" t="n">
-        <v>437.6964226305959</v>
+        <v>963.3973594422661</v>
       </c>
       <c r="Y34" t="n">
-        <v>395.2468244550147</v>
+        <v>742.6047802987359</v>
       </c>
     </row>
     <row r="35">
@@ -6913,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514082</v>
@@ -6955,13 +6955,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7004,25 +7004,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
         <v>1228.513823643586</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>441.900558318119</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C37" t="n">
-        <v>441.900558318119</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D37" t="n">
-        <v>291.7839189057833</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E37" t="n">
-        <v>143.8708253233901</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F37" t="n">
-        <v>143.8708253233901</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7137,10 +7137,10 @@
         <v>441.900558318119</v>
       </c>
       <c r="X37" t="n">
-        <v>441.900558318119</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y37" t="n">
-        <v>441.900558318119</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="38">
@@ -7153,52 +7153,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7250,31 +7250,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>527.6488635960989</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7362,22 +7362,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V40" t="n">
-        <v>955.1031435655738</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W40" t="n">
-        <v>665.6859735286132</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="X40" t="n">
-        <v>437.6964226305959</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="Y40" t="n">
-        <v>278.8655562905255</v>
+        <v>696.5850465240057</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7411,16 +7411,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
         <v>3183.709822619127</v>
@@ -7429,7 +7429,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7447,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7505,7 +7505,7 @@
         <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P42" t="n">
         <v>2317.834075963124</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>955.1031435655738</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>665.6859735286132</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>437.6964226305959</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7627,7 +7627,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
         <v>1701.09316900344</v>
@@ -7636,19 +7636,19 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514083</v>
@@ -7657,40 +7657,40 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7724,25 +7724,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P45" t="n">
         <v>2536.440602918915</v>
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>731.3351829786183</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C46" t="n">
-        <v>562.3990000507114</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D46" t="n">
-        <v>412.2823606383756</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E46" t="n">
         <v>412.2823606383756</v>
@@ -7797,13 +7797,13 @@
         <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771461</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V46" t="n">
-        <v>1202.400817845819</v>
+        <v>933.2366688293931</v>
       </c>
       <c r="W46" t="n">
-        <v>912.983647808858</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="X46" t="n">
-        <v>912.983647808858</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="Y46" t="n">
-        <v>912.983647808858</v>
+        <v>879.2482765610114</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142015</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8549,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,19 +8768,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>6.233205181928483</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>163.1635867359917</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,19 +9005,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>6.23320518192854</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>59.46140729102379</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9245,28 +9245,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>87.16935584025265</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>48.10560617264085</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445213</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,22 +9479,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>96.03744927814714</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>48.10560617264079</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9503,7 +9503,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9722,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>288.4091825776758</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9968,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>277.6717966208069</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11153,10 +11153,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>277.6717966208069</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11378,22 +11378,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>409.7003683229581</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>306.1147370139961</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -22546,19 +22546,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>66.85082057286695</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22567,7 +22567,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22600,7 +22600,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22612,10 +22612,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22704,31 +22704,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,31 +22749,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>56.2595003824849</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22786,10 +22786,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>266.1177335230245</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -22801,10 +22801,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22837,19 +22837,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22941,31 +22941,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,16 +22986,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -23004,13 +23004,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>96.68503059263384</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23026,7 +23026,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -23038,10 +23038,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23074,22 +23074,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>260.2007456957646</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23178,31 +23178,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>53.97620323457204</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,31 +23223,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23260,10 +23260,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4960408938904</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>17.37357483465786</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>312.5620199658752</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23424,22 +23424,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>126.840972343266</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.9207765545704</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>152.7120966692326</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>123.266557879417</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>17.69584188176906</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,19 +23460,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>129.1731816677914</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>205.3658819001187</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>223.3729047207587</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>285.8830546759935</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>412.9169039459368</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>33.91918385521774</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4960408938904</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,31 +23652,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>163.6770888797721</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>152.7120966692326</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>123.266557879417</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>17.69584188176908</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,31 +23697,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>205.3658819001187</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>223.3729047207587</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>96.68503059263386</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23785,7 +23785,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23794,10 +23794,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>323.0961252717103</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23892,28 +23892,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>17.69584188176918</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S19" t="n">
-        <v>157.2098466618489</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>58.35886639452585</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24031,13 +24031,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>381.0951012585354</v>
       </c>
     </row>
     <row r="21">
@@ -24135,22 +24135,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>67.05720793404653</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>17.69584188176917</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>58.35886639452565</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>71.46831781370108</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24414,22 +24414,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>194.2874683808268</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>50.96659166315997</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24651,10 +24651,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>28.09309322362424</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24843,16 +24843,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>65.2037536770228</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>38.70615448891778</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25125,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>145.6043866919886</v>
       </c>
       <c r="Y34" t="n">
-        <v>176.5595511582694</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25317,16 +25317,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>29.89407122271365</v>
       </c>
       <c r="G37" t="n">
-        <v>120.3063719389043</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>14.34302927325791</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25602,22 +25602,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>61.34209567542518</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25836,10 +25836,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>48.00368395686547</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26031,7 +26031,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>244.8246975374425</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>233.0744899908931</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>994108.0333724422</v>
+        <v>702824.1735731201</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>994108.0333724422</v>
+        <v>702824.1735731201</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>994108.0333724422</v>
+        <v>702824.1735731201</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>818599.3268267469</v>
+        <v>702824.17357312</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>818599.3268267467</v>
+        <v>702824.1735731203</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>945598.6813359333</v>
+        <v>818599.3268267466</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>945598.6813359333</v>
+        <v>818599.3268267466</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>945598.6813359333</v>
+        <v>945598.6813359332</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>945598.6813359333</v>
+        <v>945598.6813359334</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>945598.6813359334</v>
+        <v>945598.6813359332</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>945598.6813359334</v>
+        <v>945598.6813359333</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>945598.6813359334</v>
+        <v>945598.6813359333</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.9734253559</v>
+        <v>318067.8710173332</v>
       </c>
       <c r="C2" t="n">
-        <v>451572.973425356</v>
+        <v>318067.8710173333</v>
       </c>
       <c r="D2" t="n">
-        <v>451572.973425356</v>
+        <v>318067.8710173334</v>
       </c>
       <c r="E2" t="n">
-        <v>371509.2212626562</v>
+        <v>318067.8710173334</v>
       </c>
       <c r="F2" t="n">
-        <v>371509.221262656</v>
+        <v>318067.8710173335</v>
       </c>
       <c r="G2" t="n">
-        <v>430131.9657114798</v>
+        <v>371509.2212626557</v>
       </c>
       <c r="H2" t="n">
-        <v>430131.9657114798</v>
+        <v>371509.2212626556</v>
       </c>
       <c r="I2" t="n">
         <v>430131.9657114797</v>
       </c>
       <c r="J2" t="n">
+        <v>430131.9657114798</v>
+      </c>
+      <c r="K2" t="n">
+        <v>430131.9657114795</v>
+      </c>
+      <c r="L2" t="n">
         <v>430131.9657114797</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
+        <v>430131.9657114798</v>
+      </c>
+      <c r="N2" t="n">
         <v>430131.9657114797</v>
-      </c>
-      <c r="L2" t="n">
-        <v>430131.9657114798</v>
-      </c>
-      <c r="M2" t="n">
-        <v>430131.9657114797</v>
-      </c>
-      <c r="N2" t="n">
-        <v>430131.9657114798</v>
       </c>
       <c r="O2" t="n">
         <v>430131.9657114798</v>
       </c>
       <c r="P2" t="n">
-        <v>430131.9657114796</v>
+        <v>430131.9657114798</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>248146.7686188439</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>263762.88926591</v>
+        <v>236417.6520004548</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>255532.1595990992</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62453.05588965317</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>69864.88484991108</v>
+        <v>60309.58713704782</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159208</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="C4" t="n">
-        <v>147917.0487159208</v>
+        <v>9371.018034361485</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159209</v>
+        <v>9371.018034361483</v>
       </c>
       <c r="E4" t="n">
-        <v>8673.279618076547</v>
+        <v>9371.018034361485</v>
       </c>
       <c r="F4" t="n">
-        <v>8673.279618076549</v>
+        <v>9371.018034361485</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007482</v>
+        <v>8673.279618076551</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007484</v>
+        <v>8673.279618076551</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="J4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="K4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="L4" t="n">
         <v>7916.731656007484</v>
@@ -26453,13 +26453,13 @@
         <v>7916.731656007484</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.731656007487</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="O4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007486</v>
+        <v>7916.731656007483</v>
       </c>
     </row>
     <row r="5">
@@ -26478,19 +26478,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>69171.54328360147</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="F5" t="n">
-        <v>69171.54328360144</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871667</v>
+        <v>69171.54328360136</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>69171.54328360136</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871661</v>
@@ -26499,19 +26499,19 @@
         <v>91987.32594871661</v>
       </c>
       <c r="L5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="M5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="M5" t="n">
-        <v>91987.32594871661</v>
-      </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-369171.0325685189</v>
+        <v>-364736.9456695642</v>
       </c>
       <c r="C6" t="n">
-        <v>220796.8466460257</v>
+        <v>225230.9335449804</v>
       </c>
       <c r="D6" t="n">
-        <v>220796.8466460256</v>
+        <v>225230.9335449805</v>
       </c>
       <c r="E6" t="n">
-        <v>41878.36828019343</v>
+        <v>258858.5335449805</v>
       </c>
       <c r="F6" t="n">
-        <v>290025.1368990372</v>
+        <v>258858.5335449806</v>
       </c>
       <c r="G6" t="n">
-        <v>65490.42758112404</v>
+        <v>56882.82021432885</v>
       </c>
       <c r="H6" t="n">
-        <v>329253.3168470345</v>
+        <v>293300.4722147836</v>
       </c>
       <c r="I6" t="n">
-        <v>329253.3168470339</v>
+        <v>74598.28938168426</v>
       </c>
       <c r="J6" t="n">
-        <v>152830.0976544411</v>
+        <v>153707.2297881905</v>
       </c>
       <c r="K6" t="n">
-        <v>329253.316847034</v>
+        <v>330130.4489807833</v>
       </c>
       <c r="L6" t="n">
-        <v>329253.316847034</v>
+        <v>330130.4489807835</v>
       </c>
       <c r="M6" t="n">
-        <v>266800.2609573808</v>
+        <v>330130.4489807835</v>
       </c>
       <c r="N6" t="n">
-        <v>329253.316847034</v>
+        <v>330130.4489807835</v>
       </c>
       <c r="O6" t="n">
-        <v>259388.431997123</v>
+        <v>269820.8618437357</v>
       </c>
       <c r="P6" t="n">
-        <v>329253.3168470338</v>
+        <v>330130.4489807836</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26746,19 +26746,19 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>593.4761003380645</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
-        <v>593.4761003380643</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541006</v>
+        <v>593.4761003380635</v>
       </c>
       <c r="H3" t="n">
+        <v>593.4761003380636</v>
+      </c>
+      <c r="I3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26798,16 +26798,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>924.8974390827575</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="F4" t="n">
-        <v>924.8974390827572</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253574</v>
+        <v>924.8974390827563</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253573</v>
+        <v>924.8974390827563</v>
       </c>
       <c r="I4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>215.7324361209779</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>236.9063051160364</v>
+        <v>215.7324361209768</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>236.9063051160366</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,22 +27020,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>250.6101663282019</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>290.3162041708164</v>
+        <v>250.6101663282006</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>290.3162041708166</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>250.6101663282017</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>290.3162041708161</v>
+        <v>250.6101663282006</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>250.6101663282019</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>290.3162041708164</v>
+        <v>250.6101663282006</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>155.0738622063901</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>80.49006577330462</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27593,19 +27593,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>74.74425144011354</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,25 +27663,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27788,10 +27788,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27818,31 +27818,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>99.85711428653693</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>49.1653621273432</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>158.8578157762264</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,16 +28025,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,28 +28055,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.385833569198248</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H11" t="n">
-        <v>24.43391804055156</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>91.97984867651553</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J11" t="n">
-        <v>202.4946418937399</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>303.4869768779018</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L11" t="n">
-        <v>376.5024309712527</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M11" t="n">
-        <v>418.9314987074821</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
-        <v>425.7102483359666</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>401.9861157822515</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P11" t="n">
-        <v>343.0858495426697</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q11" t="n">
-        <v>257.6431848457574</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411495</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S11" t="n">
-        <v>54.36718245810512</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>10.44398644916533</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1908666855358598</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.276533498840365</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H12" t="n">
-        <v>12.328626159853</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I12" t="n">
-        <v>43.95082441182837</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>120.6044214847382</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K12" t="n">
-        <v>206.1321659070427</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L12" t="n">
-        <v>277.1701353512819</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M12" t="n">
-        <v>323.4444746842451</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N12" t="n">
-        <v>332.005087490065</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O12" t="n">
-        <v>303.7197925947074</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>243.7619099671571</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
-        <v>162.9483813607456</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>79.25705355080797</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S12" t="n">
-        <v>23.71104985784624</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>5.145325813308312</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.08398246702897143</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.070202803888313</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H13" t="n">
-        <v>9.515075838207007</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I13" t="n">
-        <v>32.18391704784128</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>75.66333823490372</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>124.338107579024</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L13" t="n">
-        <v>159.1099695889952</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M13" t="n">
-        <v>167.7591540676925</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N13" t="n">
-        <v>163.7702163441089</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>151.2683017714136</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P13" t="n">
-        <v>129.4361645720919</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>89.61489115104774</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R13" t="n">
-        <v>48.12020970937813</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
-        <v>18.65071613685359</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>4.57268470752279</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05837469839390805</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.385833569198247</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H14" t="n">
-        <v>24.43391804055155</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>91.97984867651549</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J14" t="n">
-        <v>202.4946418937399</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>303.4869768779017</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L14" t="n">
-        <v>376.5024309712526</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M14" t="n">
-        <v>418.9314987074819</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N14" t="n">
-        <v>425.7102483359665</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>401.9861157822514</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P14" t="n">
-        <v>343.0858495426696</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q14" t="n">
-        <v>257.6431848457573</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411495</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S14" t="n">
-        <v>54.3671824581051</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>10.44398644916533</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1908666855358597</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.276533498840365</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H15" t="n">
-        <v>12.328626159853</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I15" t="n">
-        <v>43.95082441182835</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>120.6044214847382</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K15" t="n">
-        <v>206.1321659070426</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L15" t="n">
-        <v>277.1701353512818</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M15" t="n">
-        <v>323.444474684245</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N15" t="n">
-        <v>332.0050874900649</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O15" t="n">
-        <v>303.7197925947073</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>243.761909967157</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q15" t="n">
-        <v>162.9483813607455</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>79.25705355080794</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S15" t="n">
-        <v>23.71104985784623</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>5.14532581330831</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0839824670289714</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.070202803888312</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H16" t="n">
-        <v>9.515075838207004</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I16" t="n">
-        <v>32.18391704784126</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>75.66333823490369</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>124.3381075790239</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L16" t="n">
-        <v>159.1099695889951</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M16" t="n">
-        <v>167.7591540676925</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N16" t="n">
-        <v>163.7702163441089</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>151.2683017714135</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P16" t="n">
-        <v>129.4361645720919</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>89.6148911510477</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R16" t="n">
-        <v>48.12020970937811</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S16" t="n">
-        <v>18.65071613685359</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>4.572684707522789</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05837469839390802</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>2.385833569198244</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>24.43391804055151</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>91.97984867651536</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961206</v>
+        <v>202.4946418937396</v>
       </c>
       <c r="K17" t="n">
-        <v>424.634194604149</v>
+        <v>303.4869768779013</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304442</v>
+        <v>376.5024309712521</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565521</v>
+        <v>418.9314987074814</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>425.7102483359659</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>401.9861157822508</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946995</v>
+        <v>343.0858495426692</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647498</v>
+        <v>257.643184845757</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446479</v>
+        <v>149.8691179411493</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104652</v>
+        <v>54.36718245810503</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562945</v>
+        <v>10.44398644916532</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.1908666855358594</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.276533498840363</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>12.32862615985298</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127067</v>
+        <v>43.95082441182829</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>120.604421484738</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>206.1321659070423</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358987</v>
+        <v>277.1701353512815</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>323.4444746842445</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813464</v>
+        <v>332.0050874900644</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855528</v>
+        <v>303.7197925947069</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458551</v>
+        <v>243.7619099671567</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>162.9483813607453</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>79.25705355080783</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677466</v>
+        <v>23.7110498578462</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361493</v>
+        <v>5.145325813308303</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.08398246702897129</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.070202803888311</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>9.515075838206991</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298632</v>
+        <v>32.18391704784122</v>
       </c>
       <c r="J19" t="n">
-        <v>105.8669502822383</v>
+        <v>75.66333823490359</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>124.3381075790238</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>159.1099695889949</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>167.7591540676922</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263752</v>
+        <v>163.7702163441087</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>151.2683017714133</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469074</v>
+        <v>129.4361645720917</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>89.61489115104759</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337673</v>
+        <v>48.12020970937805</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>18.65071613685356</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>4.572684707522782</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.05837469839390794</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>2.385833569198244</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>24.43391804055152</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>91.97984867651539</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>202.4946418937396</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>303.4869768779013</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>376.5024309712522</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>418.9314987074814</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>425.710248335966</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>401.9861157822509</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>343.0858495426692</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>257.643184845757</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>149.8691179411493</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>54.36718245810503</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562944</v>
+        <v>10.44398644916532</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.1908666855358595</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.276533498840363</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>12.32862615985298</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>43.9508244118283</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>120.604421484738</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>206.1321659070423</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>277.1701353512815</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>323.4444746842446</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>332.0050874900645</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>303.7197925947069</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>243.7619099671568</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>162.9483813607453</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>79.25705355080784</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>23.71104985784621</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>5.145325813308304</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.0839824670289713</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.070202803888311</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>9.515075838206993</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>32.18391704784123</v>
       </c>
       <c r="J22" t="n">
-        <v>105.8669502822383</v>
+        <v>75.66333823490361</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>124.3381075790238</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>159.109969588995</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>167.7591540676923</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>163.7702163441087</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>151.2683017714134</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469073</v>
+        <v>129.4361645720917</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>89.6148911510476</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>48.12020970937806</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>18.65071613685356</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>4.572684707522783</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.05837469839390796</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35269,10 +35269,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.5453525391274</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
-        <v>407.542538404086</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L11" t="n">
-        <v>558.3972305517159</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M11" t="n">
-        <v>638.0987989730419</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N11" t="n">
-        <v>633.6441091513599</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>552.6880856233101</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P11" t="n">
-        <v>433.6515619588828</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q11" t="n">
-        <v>247.6524856312126</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K12" t="n">
-        <v>231.4543136686754</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
-        <v>509.4561008748669</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
-        <v>181.3104407622268</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>680.0057497502852</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O12" t="n">
-        <v>554.9858674269925</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>428.250271192764</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.96660727472405</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,25 +35570,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>102.0686157531411</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L13" t="n">
-        <v>186.6999948493113</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M13" t="n">
-        <v>207.3430310295331</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N13" t="n">
-        <v>207.9023887233375</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O13" t="n">
-        <v>175.8534296854533</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>126.7147238369854</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.452847899353358</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.5453525391274</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K14" t="n">
-        <v>407.5425384040859</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L14" t="n">
-        <v>558.3972305517159</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M14" t="n">
-        <v>638.0987989730417</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N14" t="n">
-        <v>633.6441091513598</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>552.68808562331</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P14" t="n">
-        <v>433.6515619588827</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
-        <v>247.6524856312125</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K15" t="n">
-        <v>332.7559639452622</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
-        <v>138.6157555714076</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
-        <v>240.7718480532505</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>680.0057497502851</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O15" t="n">
-        <v>554.9858674269924</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>428.250271192764</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>233.0438950105731</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,25 +35807,25 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>102.0686157531411</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L16" t="n">
-        <v>186.6999948493113</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M16" t="n">
-        <v>207.3430310295331</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N16" t="n">
-        <v>207.9023887233375</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O16" t="n">
-        <v>175.8534296854532</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>126.7147238369853</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.452847899353316</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415081</v>
+        <v>190.5453525391271</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303332</v>
+        <v>407.5425384040855</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109074</v>
+        <v>558.3972305517153</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221119</v>
+        <v>638.0987989730411</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>633.6441091513591</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>552.6880856233095</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>433.6515619588823</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.499584150205</v>
+        <v>247.6524856312122</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349819</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953156</v>
+        <v>119.8578301584801</v>
       </c>
       <c r="K18" t="n">
-        <v>237.744794428192</v>
+        <v>332.7559639452619</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560245</v>
+        <v>509.4561008748665</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004665</v>
+        <v>229.4160469348671</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980131</v>
+        <v>200.6633754067311</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411083</v>
+        <v>554.9858674269919</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315248</v>
+        <v>428.2502711927636</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209233</v>
+        <v>233.0438950105729</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556557</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>102.0686157531409</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>186.6999948493111</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>207.3430310295328</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056038</v>
+        <v>207.9023887233373</v>
       </c>
       <c r="O19" t="n">
-        <v>236.237351520603</v>
+        <v>175.853429685453</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118009</v>
+        <v>126.7147238369852</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.2256999718748</v>
+        <v>3.452847899353202</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>190.5453525391271</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>407.5425384040855</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>558.3972305517154</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>638.0987989730412</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>633.6441091513592</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>552.6880856233096</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>433.6515619588823</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>247.6524856312122</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>137.9476282330538</v>
+        <v>119.8578301584802</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>332.755963945262</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>509.4561008748665</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>229.4160469348671</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>200.6633754067311</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>554.9858674269919</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>428.2502711927636</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>233.0438950105729</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>102.0686157531409</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>186.6999948493111</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>207.3430310295329</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>207.9023887233373</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>175.8534296854531</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>126.7147238369852</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>3.452847899353216</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,19 +36442,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337001</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36688,16 +36688,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>560.035498861915</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341714</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504662</v>
@@ -37165,7 +37165,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37551,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
@@ -37636,16 +37636,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37873,10 +37873,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>560.035498861915</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -38025,7 +38025,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38098,22 +38098,22 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>588.4784392551043</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
         <v>88.0130327850741</v>
